--- a/flight/yaohao/result.xlsx
+++ b/flight/yaohao/result.xlsx
@@ -21,6 +21,143 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+  <si>
+    <t>管理支持部门（含董秘局）   一居室：12   二居室：2   双人间：3</t>
+  </si>
+  <si>
+    <t>一居室房源分配情况</t>
+  </si>
+  <si>
+    <t>一居室：57</t>
+  </si>
+  <si>
+    <t>一居室：169</t>
+  </si>
+  <si>
+    <t>一居室：160</t>
+  </si>
+  <si>
+    <t>一居室：357</t>
+  </si>
+  <si>
+    <t>一居室：98</t>
+  </si>
+  <si>
+    <t>一居室：127</t>
+  </si>
+  <si>
+    <t>一居室：415</t>
+  </si>
+  <si>
+    <t>一居室：446</t>
+  </si>
+  <si>
+    <t>一居室：264</t>
+  </si>
+  <si>
+    <t>一居室：92</t>
+  </si>
+  <si>
+    <t>一居室：398</t>
+  </si>
+  <si>
+    <t>一居室：389</t>
+  </si>
+  <si>
+    <t>二居室房源分配情况</t>
+  </si>
+  <si>
+    <t>二居室：165</t>
+  </si>
+  <si>
+    <t>二居室：204</t>
+  </si>
+  <si>
+    <t>双人间房源分配情况</t>
+  </si>
+  <si>
+    <t>双人间：383</t>
+  </si>
+  <si>
+    <t>双人间：28</t>
+  </si>
+  <si>
+    <t>双人间：311</t>
+  </si>
+  <si>
+    <t>运行控制中心   一居室：14   二居室：3   双人间：5</t>
+  </si>
+  <si>
+    <t>一居室：434</t>
+  </si>
+  <si>
+    <t>一居室：251</t>
+  </si>
+  <si>
+    <t>一居室：494</t>
+  </si>
+  <si>
+    <t>一居室：89</t>
+  </si>
+  <si>
+    <t>一居室：149</t>
+  </si>
+  <si>
+    <t>一居室：517</t>
+  </si>
+  <si>
+    <t>一居室：558</t>
+  </si>
+  <si>
+    <t>一居室：114</t>
+  </si>
+  <si>
+    <t>一居室：243</t>
+  </si>
+  <si>
+    <t>一居室：93</t>
+  </si>
+  <si>
+    <t>一居室：175</t>
+  </si>
+  <si>
+    <t>一居室：507</t>
+  </si>
+  <si>
+    <t>一居室：17</t>
+  </si>
+  <si>
+    <t>一居室：380</t>
+  </si>
+  <si>
+    <t>二居室：101</t>
+  </si>
+  <si>
+    <t>二居室：148</t>
+  </si>
+  <si>
+    <t>二居室：39</t>
+  </si>
+  <si>
+    <t>双人间：466</t>
+  </si>
+  <si>
+    <t>双人间：177</t>
+  </si>
+  <si>
+    <t>双人间：304</t>
+  </si>
+  <si>
+    <t>双人间：338</t>
+  </si>
+  <si>
+    <t>双人间：92</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,12 +519,248 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/flight/yaohao/result.xlsx
+++ b/flight/yaohao/result.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="9885"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="9615"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>管理支持部门（含董秘局）   一居室：12   二居室：2   双人间：3</t>
   </si>
@@ -32,130 +32,61 @@
     <t>一居室房源分配情况</t>
   </si>
   <si>
-    <t>一居室：57</t>
-  </si>
-  <si>
-    <t>一居室：169</t>
-  </si>
-  <si>
-    <t>一居室：160</t>
-  </si>
-  <si>
-    <t>一居室：357</t>
-  </si>
-  <si>
-    <t>一居室：98</t>
-  </si>
-  <si>
-    <t>一居室：127</t>
-  </si>
-  <si>
-    <t>一居室：415</t>
-  </si>
-  <si>
-    <t>一居室：446</t>
-  </si>
-  <si>
-    <t>一居室：264</t>
-  </si>
-  <si>
-    <t>一居室：92</t>
-  </si>
-  <si>
-    <t>一居室：398</t>
-  </si>
-  <si>
-    <t>一居室：389</t>
+    <t>一居室：493</t>
+  </si>
+  <si>
+    <t>一居室：479</t>
+  </si>
+  <si>
+    <t>一居室：392</t>
+  </si>
+  <si>
+    <t>一居室：56</t>
+  </si>
+  <si>
+    <t>一居室：353</t>
+  </si>
+  <si>
+    <t>一居室：373</t>
+  </si>
+  <si>
+    <t>一居室：179</t>
+  </si>
+  <si>
+    <t>一居室：370</t>
+  </si>
+  <si>
+    <t>一居室：153</t>
+  </si>
+  <si>
+    <t>一居室：407</t>
+  </si>
+  <si>
+    <t>一居室：343</t>
+  </si>
+  <si>
+    <t>一居室：342</t>
   </si>
   <si>
     <t>二居室房源分配情况</t>
   </si>
   <si>
-    <t>二居室：165</t>
-  </si>
-  <si>
-    <t>二居室：204</t>
+    <t>二居室：238</t>
+  </si>
+  <si>
+    <t>二居室：181</t>
   </si>
   <si>
     <t>双人间房源分配情况</t>
   </si>
   <si>
-    <t>双人间：383</t>
-  </si>
-  <si>
-    <t>双人间：28</t>
-  </si>
-  <si>
-    <t>双人间：311</t>
-  </si>
-  <si>
-    <t>运行控制中心   一居室：14   二居室：3   双人间：5</t>
-  </si>
-  <si>
-    <t>一居室：434</t>
-  </si>
-  <si>
-    <t>一居室：251</t>
-  </si>
-  <si>
-    <t>一居室：494</t>
-  </si>
-  <si>
-    <t>一居室：89</t>
-  </si>
-  <si>
-    <t>一居室：149</t>
-  </si>
-  <si>
-    <t>一居室：517</t>
-  </si>
-  <si>
-    <t>一居室：558</t>
-  </si>
-  <si>
-    <t>一居室：114</t>
-  </si>
-  <si>
-    <t>一居室：243</t>
-  </si>
-  <si>
-    <t>一居室：93</t>
-  </si>
-  <si>
-    <t>一居室：175</t>
-  </si>
-  <si>
-    <t>一居室：507</t>
-  </si>
-  <si>
-    <t>一居室：17</t>
-  </si>
-  <si>
-    <t>一居室：380</t>
-  </si>
-  <si>
-    <t>二居室：101</t>
-  </si>
-  <si>
-    <t>二居室：148</t>
-  </si>
-  <si>
-    <t>二居室：39</t>
-  </si>
-  <si>
-    <t>双人间：466</t>
-  </si>
-  <si>
-    <t>双人间：177</t>
-  </si>
-  <si>
-    <t>双人间：304</t>
-  </si>
-  <si>
-    <t>双人间：338</t>
-  </si>
-  <si>
-    <t>双人间：92</t>
+    <t>双人间：95</t>
+  </si>
+  <si>
+    <t>双人间：217</t>
+  </si>
+  <si>
+    <t>双人间：156</t>
   </si>
 </sst>
 </file>
@@ -519,7 +450,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A47"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -630,136 +561,6 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>43</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/flight/yaohao/result.xlsx
+++ b/flight/yaohao/result.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>管理支持部门（含董秘局）   一居室：12   二居室：2   双人间：3</t>
   </si>
@@ -32,61 +32,130 @@
     <t>一居室房源分配情况</t>
   </si>
   <si>
-    <t>一居室：493</t>
-  </si>
-  <si>
-    <t>一居室：479</t>
-  </si>
-  <si>
-    <t>一居室：392</t>
-  </si>
-  <si>
-    <t>一居室：56</t>
-  </si>
-  <si>
-    <t>一居室：353</t>
-  </si>
-  <si>
-    <t>一居室：373</t>
-  </si>
-  <si>
-    <t>一居室：179</t>
-  </si>
-  <si>
-    <t>一居室：370</t>
-  </si>
-  <si>
-    <t>一居室：153</t>
-  </si>
-  <si>
-    <t>一居室：407</t>
-  </si>
-  <si>
-    <t>一居室：343</t>
-  </si>
-  <si>
-    <t>一居室：342</t>
+    <t>一居室：236</t>
+  </si>
+  <si>
+    <t>一居室：40</t>
+  </si>
+  <si>
+    <t>一居室：586</t>
+  </si>
+  <si>
+    <t>一居室：438</t>
+  </si>
+  <si>
+    <t>一居室：491</t>
+  </si>
+  <si>
+    <t>一居室：579</t>
+  </si>
+  <si>
+    <t>一居室：285</t>
+  </si>
+  <si>
+    <t>一居室：484</t>
+  </si>
+  <si>
+    <t>一居室：52</t>
+  </si>
+  <si>
+    <t>一居室：418</t>
+  </si>
+  <si>
+    <t>一居室：554</t>
+  </si>
+  <si>
+    <t>一居室：313</t>
   </si>
   <si>
     <t>二居室房源分配情况</t>
   </si>
   <si>
-    <t>二居室：238</t>
-  </si>
-  <si>
-    <t>二居室：181</t>
+    <t>二居室：187</t>
+  </si>
+  <si>
+    <t>二居室：297</t>
   </si>
   <si>
     <t>双人间房源分配情况</t>
   </si>
   <si>
-    <t>双人间：95</t>
-  </si>
-  <si>
-    <t>双人间：217</t>
-  </si>
-  <si>
-    <t>双人间：156</t>
+    <t>双人间：474</t>
+  </si>
+  <si>
+    <t>双人间：467</t>
+  </si>
+  <si>
+    <t>双人间：354</t>
+  </si>
+  <si>
+    <t>运行控制中心   一居室：14   二居室：3   双人间：5</t>
+  </si>
+  <si>
+    <t>一居室：45</t>
+  </si>
+  <si>
+    <t>一居室：477</t>
+  </si>
+  <si>
+    <t>一居室：503</t>
+  </si>
+  <si>
+    <t>一居室：303</t>
+  </si>
+  <si>
+    <t>一居室：350</t>
+  </si>
+  <si>
+    <t>一居室：304</t>
+  </si>
+  <si>
+    <t>一居室：501</t>
+  </si>
+  <si>
+    <t>一居室：318</t>
+  </si>
+  <si>
+    <t>一居室：431</t>
+  </si>
+  <si>
+    <t>一居室：200</t>
+  </si>
+  <si>
+    <t>一居室：462</t>
+  </si>
+  <si>
+    <t>一居室：6</t>
+  </si>
+  <si>
+    <t>一居室：171</t>
+  </si>
+  <si>
+    <t>一居室：124</t>
+  </si>
+  <si>
+    <t>二居室：1</t>
+  </si>
+  <si>
+    <t>二居室：273</t>
+  </si>
+  <si>
+    <t>二居室：280</t>
+  </si>
+  <si>
+    <t>双人间：259</t>
+  </si>
+  <si>
+    <t>双人间：159</t>
+  </si>
+  <si>
+    <t>双人间：333</t>
+  </si>
+  <si>
+    <t>双人间：60</t>
+  </si>
+  <si>
+    <t>双人间：253</t>
   </si>
 </sst>
 </file>
@@ -450,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:A47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -561,6 +630,136 @@
         <v>20</v>
       </c>
     </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
